--- a/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C896A69-765A-4CED-9A40-31174625E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2535A61-E677-45EB-A93B-BC15B27A7C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{79B7C2A5-61B7-4B58-B9CE-32EAB8FC0DD3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BE855D02-7674-4683-8106-5C7A89D580C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>66,85%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>69,63%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>33,15%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>37,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>32,56%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
     <t>70,76%</t>
   </si>
   <si>
@@ -419,6 +419,114 @@
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
     <t>70,84%</t>
   </si>
   <si>
@@ -473,58 +581,58 @@
     <t>35,29%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>74,34%</t>
@@ -581,114 +689,6 @@
     <t>31,09%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
     <t>70,99%</t>
   </si>
   <si>
@@ -746,6 +746,108 @@
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
     <t>70,71%</t>
   </si>
   <si>
@@ -794,52 +896,46 @@
     <t>26,9%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
   </si>
   <si>
     <t>74,63%</t>
@@ -890,102 +986,6 @@
     <t>24,14%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
     <t>71,71%</t>
   </si>
   <si>
@@ -1043,6 +1043,114 @@
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
   </si>
   <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
     <t>69,64%</t>
   </si>
   <si>
@@ -1097,58 +1205,52 @@
     <t>32,18%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
   </si>
   <si>
     <t>67,26%</t>
@@ -1197,108 +1299,6 @@
   </si>
   <si>
     <t>37,98%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
   </si>
   <si>
     <t>68,98%</t>
@@ -1738,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169570CE-319B-43EE-8BEA-CFEE98B3BB9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8162647-181D-463F-84C1-F00E52392AC1}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1856,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>141823</v>
+        <v>17224</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1871,10 +1871,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>126668</v>
+        <v>13119</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1886,10 +1886,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>419</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>268491</v>
+        <v>30343</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1907,10 +1907,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>70319</v>
+        <v>8220</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1922,10 +1922,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>67804</v>
+        <v>9605</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1937,10 +1937,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>138123</v>
+        <v>17825</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1958,10 +1958,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1973,10 +1973,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>194472</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1988,10 +1988,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>633</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>406614</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2166,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="D10" s="7">
-        <v>154261</v>
+        <v>141823</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2181,10 +2181,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>143131</v>
+        <v>126668</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2196,10 +2196,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N10" s="7">
-        <v>297392</v>
+        <v>268491</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2217,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7">
-        <v>53563</v>
+        <v>70319</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2232,10 +2232,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I11" s="7">
-        <v>66184</v>
+        <v>67804</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2247,10 +2247,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="N11" s="7">
-        <v>119747</v>
+        <v>138123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2268,10 +2268,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2283,10 +2283,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>194472</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2298,10 +2298,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>406614</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2321,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="D13" s="7">
-        <v>17224</v>
+        <v>105540</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2336,10 +2336,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="I13" s="7">
-        <v>13119</v>
+        <v>100496</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2351,10 +2351,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="N13" s="7">
-        <v>30343</v>
+        <v>206036</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2372,10 +2372,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>8220</v>
+        <v>44117</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2387,10 +2387,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>9605</v>
+        <v>37321</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2402,10 +2402,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="N14" s="7">
-        <v>17825</v>
+        <v>81438</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2423,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2438,10 +2438,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2453,10 +2453,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2476,10 +2476,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="D16" s="7">
-        <v>105540</v>
+        <v>154261</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2491,10 +2491,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="I16" s="7">
-        <v>100496</v>
+        <v>143131</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2506,10 +2506,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="N16" s="7">
-        <v>206036</v>
+        <v>297392</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2527,10 +2527,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>44117</v>
+        <v>53563</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>37321</v>
+        <v>66184</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2557,10 +2557,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>81438</v>
+        <v>119747</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2578,10 +2578,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2593,10 +2593,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2608,10 +2608,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2796,7 +2796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9502E9-3378-4076-9ECF-D00661829B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C05A3D7-64E8-4930-BFD9-1E5B4679A268}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,10 +2914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>158168</v>
+        <v>18122</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>126</v>
@@ -2929,10 +2929,10 @@
         <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>136536</v>
+        <v>13272</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>129</v>
@@ -2944,10 +2944,10 @@
         <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>443</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>294704</v>
+        <v>31394</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>132</v>
@@ -2965,10 +2965,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>65095</v>
+        <v>7333</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>135</v>
@@ -2980,10 +2980,10 @@
         <v>137</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>69822</v>
+        <v>9101</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>138</v>
@@ -2995,10 +2995,10 @@
         <v>140</v>
       </c>
       <c r="M5" s="7">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>134917</v>
+        <v>16434</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>141</v>
@@ -3016,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>223263</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3031,10 +3031,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3046,10 +3046,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>642</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>429621</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3224,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D10" s="7">
-        <v>153360</v>
+        <v>158168</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>162</v>
@@ -3239,10 +3239,10 @@
         <v>164</v>
       </c>
       <c r="H10" s="7">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="I10" s="7">
-        <v>149431</v>
+        <v>136536</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>165</v>
@@ -3254,10 +3254,10 @@
         <v>167</v>
       </c>
       <c r="M10" s="7">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="N10" s="7">
-        <v>302790</v>
+        <v>294704</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>168</v>
@@ -3275,10 +3275,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>52929</v>
+        <v>65095</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>171</v>
@@ -3290,10 +3290,10 @@
         <v>173</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>60869</v>
+        <v>69822</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>174</v>
@@ -3305,10 +3305,10 @@
         <v>176</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="N11" s="7">
-        <v>113799</v>
+        <v>134917</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>177</v>
@@ -3326,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="D12" s="7">
-        <v>206289</v>
+        <v>223263</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3341,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3356,10 +3356,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>555</v>
+        <v>642</v>
       </c>
       <c r="N12" s="7">
-        <v>416589</v>
+        <v>429621</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3379,10 +3379,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="D13" s="7">
-        <v>18122</v>
+        <v>115539</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>180</v>
@@ -3394,10 +3394,10 @@
         <v>182</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="I13" s="7">
-        <v>13272</v>
+        <v>109025</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>183</v>
@@ -3409,10 +3409,10 @@
         <v>185</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>348</v>
       </c>
       <c r="N13" s="7">
-        <v>31394</v>
+        <v>224564</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>186</v>
@@ -3430,10 +3430,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7">
-        <v>7333</v>
+        <v>49625</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>189</v>
@@ -3445,10 +3445,10 @@
         <v>191</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7">
-        <v>9101</v>
+        <v>46351</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>192</v>
@@ -3460,10 +3460,10 @@
         <v>194</v>
       </c>
       <c r="M14" s="7">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="N14" s="7">
-        <v>16434</v>
+        <v>95976</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>195</v>
@@ -3481,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165164</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3496,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3511,10 +3511,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320540</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3534,10 +3534,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D16" s="7">
-        <v>115539</v>
+        <v>153360</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>198</v>
@@ -3549,10 +3549,10 @@
         <v>200</v>
       </c>
       <c r="H16" s="7">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="I16" s="7">
-        <v>109025</v>
+        <v>149431</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>201</v>
@@ -3564,10 +3564,10 @@
         <v>203</v>
       </c>
       <c r="M16" s="7">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="N16" s="7">
-        <v>224564</v>
+        <v>302790</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>204</v>
@@ -3585,10 +3585,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
-        <v>49625</v>
+        <v>52929</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>207</v>
@@ -3600,10 +3600,10 @@
         <v>209</v>
       </c>
       <c r="H17" s="7">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>46351</v>
+        <v>60869</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>210</v>
@@ -3615,10 +3615,10 @@
         <v>212</v>
       </c>
       <c r="M17" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N17" s="7">
-        <v>95976</v>
+        <v>113799</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>213</v>
@@ -3636,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D18" s="7">
-        <v>165164</v>
+        <v>206289</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3651,10 +3651,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3666,10 +3666,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="N18" s="7">
-        <v>320540</v>
+        <v>416589</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE32356-F168-45B8-B13F-5C4CF3E6EDED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D315846F-D637-4C6B-843A-30FC6DB23D04}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3972,10 +3972,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>158652</v>
+        <v>17757</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>235</v>
@@ -3987,10 +3987,10 @@
         <v>237</v>
       </c>
       <c r="H4" s="7">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>142384</v>
+        <v>13670</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>238</v>
@@ -4002,19 +4002,19 @@
         <v>240</v>
       </c>
       <c r="M4" s="7">
-        <v>472</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>301036</v>
+        <v>31427</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4023,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>65707</v>
+        <v>7817</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>64863</v>
+        <v>8857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>130570</v>
+        <v>16674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,10 +4074,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4089,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +4104,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4133,13 +4133,13 @@
         <v>84901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -4148,13 +4148,13 @@
         <v>79386</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -4163,13 +4163,13 @@
         <v>164287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4184,13 @@
         <v>37601</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -4199,13 +4199,13 @@
         <v>31794</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -4214,13 +4214,13 @@
         <v>69395</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,49 +4282,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D10" s="7">
-        <v>153537</v>
+        <v>158652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="I10" s="7">
-        <v>144833</v>
+        <v>142384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="N10" s="7">
-        <v>298369</v>
+        <v>301036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,49 +4333,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>52199</v>
+        <v>65707</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I11" s="7">
-        <v>62587</v>
+        <v>64863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="N11" s="7">
-        <v>114787</v>
+        <v>130570</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4399,10 +4399,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +4414,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4437,43 +4437,43 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>17757</v>
+        <v>119284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="I13" s="7">
-        <v>13670</v>
+        <v>110803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="N13" s="7">
-        <v>31427</v>
+        <v>230087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>290</v>
@@ -4488,10 +4488,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>7817</v>
+        <v>47389</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>292</v>
@@ -4503,10 +4503,10 @@
         <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I14" s="7">
-        <v>8857</v>
+        <v>45194</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>295</v>
@@ -4515,22 +4515,22 @@
         <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="7">
+        <v>142</v>
+      </c>
+      <c r="N14" s="7">
+        <v>92583</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M14" s="7">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7">
-        <v>16674</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,10 +4539,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4554,10 +4554,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4569,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4592,49 +4592,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="D16" s="7">
-        <v>119284</v>
+        <v>153537</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>198</v>
+      </c>
+      <c r="I16" s="7">
+        <v>144833</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H16" s="7">
-        <v>187</v>
-      </c>
-      <c r="I16" s="7">
-        <v>110803</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>418</v>
+      </c>
+      <c r="N16" s="7">
+        <v>298369</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="M16" s="7">
-        <v>365</v>
-      </c>
-      <c r="N16" s="7">
-        <v>230087</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="P16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,46 +4646,46 @@
         <v>70</v>
       </c>
       <c r="D17" s="7">
-        <v>47389</v>
+        <v>52199</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>83</v>
+      </c>
+      <c r="I17" s="7">
+        <v>62587</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="7">
-        <v>72</v>
-      </c>
-      <c r="I17" s="7">
-        <v>45194</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="M17" s="7">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N17" s="7">
-        <v>92583</v>
+        <v>114787</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,10 +4694,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4709,10 +4709,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4724,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4912,7 +4912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD145A88-90DD-4367-8751-994EF9AF5B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D1CEC6-669C-4F33-ABE6-12F88025E66E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5030,10 +5030,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>171123</v>
+        <v>10202</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>334</v>
@@ -5045,10 +5045,10 @@
         <v>336</v>
       </c>
       <c r="H4" s="7">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>141019</v>
+        <v>10198</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>337</v>
@@ -5060,10 +5060,10 @@
         <v>339</v>
       </c>
       <c r="M4" s="7">
-        <v>451</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>312142</v>
+        <v>20400</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>340</v>
@@ -5081,10 +5081,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>74611</v>
+        <v>2496</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>343</v>
@@ -5096,10 +5096,10 @@
         <v>345</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>48182</v>
+        <v>6589</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>346</v>
@@ -5111,10 +5111,10 @@
         <v>348</v>
       </c>
       <c r="M5" s="7">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>122793</v>
+        <v>9085</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>349</v>
@@ -5132,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>245734</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5147,10 +5147,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>189201</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5162,10 +5162,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>613</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>434935</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5340,10 +5340,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="D10" s="7">
-        <v>115614</v>
+        <v>171123</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>370</v>
@@ -5355,34 +5355,34 @@
         <v>372</v>
       </c>
       <c r="H10" s="7">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="I10" s="7">
-        <v>110394</v>
+        <v>141019</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
-        <v>320</v>
+        <v>451</v>
       </c>
       <c r="N10" s="7">
-        <v>226007</v>
+        <v>312142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,49 +5391,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>56281</v>
+        <v>74611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>57110</v>
+        <v>48182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M11" s="7">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="N11" s="7">
-        <v>113391</v>
+        <v>122793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,10 +5442,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="D12" s="7">
-        <v>171895</v>
+        <v>245734</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5457,10 +5457,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="I12" s="7">
-        <v>167504</v>
+        <v>189201</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5472,10 +5472,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>469</v>
+        <v>613</v>
       </c>
       <c r="N12" s="7">
-        <v>339398</v>
+        <v>434935</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5495,49 +5495,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7">
-        <v>10202</v>
+        <v>114033</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="I13" s="7">
-        <v>10198</v>
+        <v>113484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="N13" s="7">
-        <v>20400</v>
+        <v>227517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5546,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
-        <v>2496</v>
+        <v>56068</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>396</v>
@@ -5561,10 +5561,10 @@
         <v>397</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="I14" s="7">
-        <v>6589</v>
+        <v>51750</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>398</v>
@@ -5576,10 +5576,10 @@
         <v>400</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="N14" s="7">
-        <v>9085</v>
+        <v>107818</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>401</v>
@@ -5597,10 +5597,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>170101</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5612,10 +5612,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>165234</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5627,10 +5627,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>335335</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D16" s="7">
-        <v>114033</v>
+        <v>115614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I16" s="7">
-        <v>113484</v>
+        <v>110394</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>407</v>
@@ -5680,10 +5680,10 @@
         <v>408</v>
       </c>
       <c r="M16" s="7">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="N16" s="7">
-        <v>227517</v>
+        <v>226007</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>409</v>
@@ -5701,28 +5701,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D17" s="7">
-        <v>56068</v>
+        <v>56281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I17" s="7">
-        <v>51750</v>
+        <v>57110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>415</v>
@@ -5731,10 +5731,10 @@
         <v>416</v>
       </c>
       <c r="M17" s="7">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="N17" s="7">
-        <v>107818</v>
+        <v>113391</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>417</v>
@@ -5752,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D18" s="7">
-        <v>170101</v>
+        <v>171895</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5767,10 +5767,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>165234</v>
+        <v>167504</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5782,10 +5782,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="N18" s="7">
-        <v>335335</v>
+        <v>339398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2535A61-E677-45EB-A93B-BC15B27A7C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D447AFF9-36FE-4AE7-94AF-DB3F04D4BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BE855D02-7674-4683-8106-5C7A89D580C3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DDB9570-F258-465B-BC8B-E211FAF796B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
   </si>
   <si>
     <t>57,73%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1216 +137,1243 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>65,18%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>59,6%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
   </si>
   <si>
     <t>68,06%</t>
   </si>
   <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>65,37%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>71,97%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1384,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1453,39 +1480,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1537,7 +1564,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1648,13 +1675,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1663,6 +1683,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1727,19 +1754,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8162647-181D-463F-84C1-F00E52392AC1}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736A2E2-EC86-4722-8050-0A780E141995}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1856,10 +1903,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>17224</v>
+        <v>8220</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1871,10 +1918,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>13119</v>
+        <v>9605</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1886,10 +1933,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>30343</v>
+        <v>17825</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1907,10 +1954,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>8220</v>
+        <v>17224</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1922,10 +1969,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>9605</v>
+        <v>13119</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1937,10 +1984,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>17825</v>
+        <v>30343</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2011,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>92528</v>
+        <v>35105</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2026,10 +2073,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="I7" s="7">
-        <v>75605</v>
+        <v>40397</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2041,10 +2088,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="N7" s="7">
-        <v>168133</v>
+        <v>75502</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2062,10 +2109,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D8" s="7">
-        <v>35105</v>
+        <v>92528</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2077,10 +2124,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="I8" s="7">
-        <v>40397</v>
+        <v>75605</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2092,10 +2139,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="N8" s="7">
-        <v>75502</v>
+        <v>168133</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2166,10 +2213,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="D10" s="7">
-        <v>141823</v>
+        <v>70319</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2181,10 +2228,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="I10" s="7">
-        <v>126668</v>
+        <v>67804</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2196,10 +2243,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>419</v>
+        <v>214</v>
       </c>
       <c r="N10" s="7">
-        <v>268491</v>
+        <v>138123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2217,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>70319</v>
+        <v>141823</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2232,10 +2279,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>67804</v>
+        <v>126668</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2247,10 +2294,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>214</v>
+        <v>419</v>
       </c>
       <c r="N11" s="7">
-        <v>138123</v>
+        <v>268491</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2321,10 +2368,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>105540</v>
+        <v>44117</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2336,10 +2383,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>100496</v>
+        <v>37321</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2351,10 +2398,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7">
-        <v>206036</v>
+        <v>81438</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2372,10 +2419,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="D14" s="7">
-        <v>44117</v>
+        <v>105540</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2387,10 +2434,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="I14" s="7">
-        <v>37321</v>
+        <v>100496</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2402,10 +2449,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>128</v>
+        <v>333</v>
       </c>
       <c r="N14" s="7">
-        <v>81438</v>
+        <v>206036</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2476,10 +2523,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7">
-        <v>154261</v>
+        <v>53563</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2491,10 +2538,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>143131</v>
+        <v>66184</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2506,10 +2553,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>416</v>
+        <v>164</v>
       </c>
       <c r="N16" s="7">
-        <v>297392</v>
+        <v>119747</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2527,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="D17" s="7">
-        <v>53563</v>
+        <v>154261</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2542,10 +2589,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="I17" s="7">
-        <v>66184</v>
+        <v>143131</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2557,10 +2604,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="N17" s="7">
-        <v>119747</v>
+        <v>297392</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2631,10 +2678,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>769</v>
+        <v>317</v>
       </c>
       <c r="D19" s="7">
-        <v>511376</v>
+        <v>211324</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2646,10 +2693,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>692</v>
+        <v>325</v>
       </c>
       <c r="I19" s="7">
-        <v>459019</v>
+        <v>221311</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -2661,10 +2708,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1461</v>
+        <v>642</v>
       </c>
       <c r="N19" s="7">
-        <v>970395</v>
+        <v>432635</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -2682,10 +2729,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>317</v>
+        <v>769</v>
       </c>
       <c r="D20" s="7">
-        <v>211324</v>
+        <v>511376</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2697,10 +2744,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>325</v>
+        <v>692</v>
       </c>
       <c r="I20" s="7">
-        <v>221311</v>
+        <v>459019</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -2712,10 +2759,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>642</v>
+        <v>1461</v>
       </c>
       <c r="N20" s="7">
-        <v>432635</v>
+        <v>970395</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2776,6 +2823,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2796,8 +2848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C05A3D7-64E8-4930-BFD9-1E5B4679A268}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3EA9E9-6D4A-4044-A71A-315FFB9AB5EE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2813,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2914,49 +2966,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>18122</v>
+        <v>7333</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>13272</v>
+        <v>9101</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>31394</v>
+        <v>16434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,49 +3017,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>7333</v>
+        <v>18122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>9101</v>
+        <v>13272</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>16434</v>
+        <v>31394</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,49 +3121,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7">
-        <v>86808</v>
+        <v>42421</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>84081</v>
+        <v>32903</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
-        <v>242</v>
+        <v>104</v>
       </c>
       <c r="N7" s="7">
-        <v>170889</v>
+        <v>75324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,49 +3172,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="D8" s="7">
-        <v>42421</v>
+        <v>86808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="I8" s="7">
-        <v>32903</v>
+        <v>84081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="N8" s="7">
-        <v>75324</v>
+        <v>170889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,49 +3276,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7">
-        <v>158168</v>
+        <v>65095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="I10" s="7">
-        <v>136536</v>
+        <v>69822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>443</v>
+        <v>199</v>
       </c>
       <c r="N10" s="7">
-        <v>294704</v>
+        <v>134917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,49 +3327,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>65095</v>
+        <v>158168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="I11" s="7">
-        <v>69822</v>
+        <v>136536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
-        <v>199</v>
+        <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>134917</v>
+        <v>294704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,49 +3431,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>115539</v>
+        <v>49625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="I13" s="7">
-        <v>109025</v>
+        <v>46351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
-        <v>348</v>
+        <v>148</v>
       </c>
       <c r="N13" s="7">
-        <v>224564</v>
+        <v>95976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,49 +3482,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7">
-        <v>49625</v>
+        <v>115539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="I14" s="7">
-        <v>46351</v>
+        <v>109025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>95976</v>
+        <v>224564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,49 +3586,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7">
+        <v>52929</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="7">
+        <v>79</v>
+      </c>
+      <c r="I16" s="7">
+        <v>60869</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="7">
+        <v>152</v>
+      </c>
+      <c r="N16" s="7">
+        <v>113799</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D16" s="7">
-        <v>153360</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="7">
-        <v>196</v>
-      </c>
-      <c r="I16" s="7">
-        <v>149431</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="M16" s="7">
-        <v>403</v>
-      </c>
-      <c r="N16" s="7">
-        <v>302790</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,49 +3637,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="D17" s="7">
-        <v>52929</v>
+        <v>153360</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="I17" s="7">
-        <v>60869</v>
+        <v>149431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="N17" s="7">
-        <v>113799</v>
+        <v>302790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,49 +3741,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>760</v>
+        <v>308</v>
       </c>
       <c r="D19" s="7">
-        <v>531997</v>
+        <v>217403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
-        <v>711</v>
+        <v>314</v>
       </c>
       <c r="I19" s="7">
-        <v>492345</v>
+        <v>219046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
-        <v>1471</v>
+        <v>622</v>
       </c>
       <c r="N19" s="7">
-        <v>1024342</v>
+        <v>436449</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,49 +3792,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>308</v>
+        <v>760</v>
       </c>
       <c r="D20" s="7">
-        <v>217403</v>
+        <v>531997</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
-        <v>314</v>
+        <v>711</v>
       </c>
       <c r="I20" s="7">
-        <v>219046</v>
+        <v>492345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
-        <v>622</v>
+        <v>1471</v>
       </c>
       <c r="N20" s="7">
-        <v>436449</v>
+        <v>1024342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,6 +3886,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3854,8 +3911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D315846F-D637-4C6B-843A-30FC6DB23D04}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034ACEC8-29B1-429F-805C-9DF2B0C43F92}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3871,7 +3928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,49 +4029,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>17757</v>
+        <v>7817</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>13670</v>
+        <v>8857</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>31427</v>
+        <v>16674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4080,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>7817</v>
+        <v>17757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>8857</v>
+        <v>13670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>16674</v>
+        <v>31427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,49 +4184,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>84901</v>
+        <v>37601</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>79386</v>
+        <v>31794</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>164287</v>
+        <v>69395</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,49 +4235,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7">
-        <v>37601</v>
+        <v>84901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="I8" s="7">
-        <v>31794</v>
+        <v>79386</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="N8" s="7">
-        <v>69395</v>
+        <v>164287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,49 +4339,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>239</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>158652</v>
+        <v>65707</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7">
-        <v>142384</v>
+        <v>64863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
-        <v>472</v>
+        <v>194</v>
       </c>
       <c r="N10" s="7">
-        <v>301036</v>
+        <v>130570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,49 +4390,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>65707</v>
+        <v>158652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="I11" s="7">
-        <v>64863</v>
+        <v>142384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
-        <v>194</v>
+        <v>472</v>
       </c>
       <c r="N11" s="7">
-        <v>130570</v>
+        <v>301036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,49 +4494,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>119284</v>
+        <v>47389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>110803</v>
+        <v>45194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="N13" s="7">
-        <v>230087</v>
+        <v>92583</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,49 +4545,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>47389</v>
+        <v>119284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="I14" s="7">
-        <v>45194</v>
+        <v>110803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="N14" s="7">
-        <v>92583</v>
+        <v>230087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,49 +4649,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>153537</v>
+        <v>52199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>144833</v>
+        <v>62587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
-        <v>418</v>
+        <v>153</v>
       </c>
       <c r="N16" s="7">
-        <v>298369</v>
+        <v>114787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,49 +4700,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="D17" s="7">
-        <v>52199</v>
+        <v>153537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="I17" s="7">
-        <v>62587</v>
+        <v>144833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
-        <v>153</v>
+        <v>418</v>
       </c>
       <c r="N17" s="7">
-        <v>114787</v>
+        <v>298369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,49 +4804,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>774</v>
+        <v>291</v>
       </c>
       <c r="D19" s="7">
-        <v>534131</v>
+        <v>210713</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
-        <v>750</v>
+        <v>311</v>
       </c>
       <c r="I19" s="7">
-        <v>491075</v>
+        <v>213296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
-        <v>1524</v>
+        <v>602</v>
       </c>
       <c r="N19" s="7">
-        <v>1025207</v>
+        <v>424008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,49 +4855,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>291</v>
+        <v>774</v>
       </c>
       <c r="D20" s="7">
-        <v>210713</v>
+        <v>534131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
-        <v>311</v>
+        <v>750</v>
       </c>
       <c r="I20" s="7">
-        <v>213296</v>
+        <v>491075</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
-        <v>602</v>
+        <v>1524</v>
       </c>
       <c r="N20" s="7">
-        <v>424008</v>
+        <v>1025207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,6 +4949,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4912,8 +4974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D1CEC6-669C-4F33-ABE6-12F88025E66E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF007DC8-D0E2-40C0-A271-BF104EEA71AE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4929,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5030,49 +5092,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>10202</v>
+        <v>2496</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>10198</v>
+        <v>6589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>20400</v>
+        <v>9085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,49 +5143,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>2496</v>
+        <v>10202</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>6589</v>
+        <v>10198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>9085</v>
+        <v>20400</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,49 +5247,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>81842</v>
+        <v>32207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>75915</v>
+        <v>27980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="N7" s="7">
-        <v>157756</v>
+        <v>60188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,49 +5298,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>32207</v>
+        <v>81842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="I8" s="7">
-        <v>27980</v>
+        <v>75915</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="N8" s="7">
-        <v>60188</v>
+        <v>157756</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,49 +5402,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7">
-        <v>171123</v>
+        <v>74611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>141019</v>
+        <v>48182</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
-        <v>451</v>
+        <v>162</v>
       </c>
       <c r="N10" s="7">
-        <v>312142</v>
+        <v>122793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,49 +5453,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="D11" s="7">
-        <v>74611</v>
+        <v>171123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>48182</v>
+        <v>141019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
-        <v>162</v>
+        <v>451</v>
       </c>
       <c r="N11" s="7">
-        <v>122793</v>
+        <v>312142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,49 +5557,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="D13" s="7">
-        <v>114033</v>
+        <v>56068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>113484</v>
+        <v>51750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="N13" s="7">
-        <v>227517</v>
+        <v>107818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,49 +5608,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>56068</v>
+        <v>114033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H14" s="7">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>51750</v>
+        <v>113484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="N14" s="7">
-        <v>107818</v>
+        <v>227517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,49 +5712,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>115614</v>
+        <v>56281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>110394</v>
+        <v>57110</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="N16" s="7">
-        <v>226007</v>
+        <v>113391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,49 +5763,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="D17" s="7">
-        <v>56281</v>
+        <v>115614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="I17" s="7">
-        <v>57110</v>
+        <v>110394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="N17" s="7">
-        <v>113391</v>
+        <v>226007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,49 +5867,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>690</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>492814</v>
+        <v>221663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>421</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H19" s="7">
-        <v>660</v>
+        <v>268</v>
       </c>
       <c r="I19" s="7">
-        <v>451009</v>
+        <v>191612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M19" s="7">
-        <v>1350</v>
+        <v>541</v>
       </c>
       <c r="N19" s="7">
-        <v>943823</v>
+        <v>413275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,49 +5918,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>273</v>
+        <v>690</v>
       </c>
       <c r="D20" s="7">
-        <v>221663</v>
+        <v>492814</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
-        <v>268</v>
+        <v>660</v>
       </c>
       <c r="I20" s="7">
-        <v>191612</v>
+        <v>451009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
-        <v>541</v>
+        <v>1350</v>
       </c>
       <c r="N20" s="7">
-        <v>413275</v>
+        <v>943823</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,6 +6012,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D447AFF9-36FE-4AE7-94AF-DB3F04D4BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB352B7-AD39-4CCE-9911-DD70B7BBEA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DDB9570-F258-465B-BC8B-E211FAF796B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C36E35A1-5CC1-46C3-95D9-DE0B7BCF16B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>32,31%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>42,27%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,202 +107,202 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>57,73%</t>
   </si>
   <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>65,18%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
   </si>
   <si>
     <t>69,01%</t>
   </si>
   <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,760 +311,730 @@
     <t>25,77%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>26,39%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>35,46%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>64,54%</t>
   </si>
   <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>74,6%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>75,59%</t>
   </si>
   <si>
     <t>28,29%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>25,71%</t>
   </si>
   <si>
     <t>30,28%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>71,71%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>74,29%</t>
   </si>
   <si>
     <t>69,72%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
@@ -1073,307 +1043,319 @@
     <t>19,66%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
   </si>
   <si>
     <t>39,25%</t>
   </si>
   <si>
-    <t>58,82%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>60,75%</t>
   </si>
   <si>
-    <t>41,18%</t>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
   </si>
   <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
   </si>
   <si>
     <t>73,07%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>72,38%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>28,23%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>71,77%</t>
   </si>
   <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>26,17%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>41,44%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>58,56%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>71,52%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4736A2E2-EC86-4722-8050-0A780E141995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413033C0-EDBC-43CE-878A-82FF89F38C63}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2848,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3EA9E9-6D4A-4044-A71A-315FFB9AB5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4507760B-FF3D-4D5B-8B7A-3D8D7EBB30D5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3148,7 +3130,7 @@
         <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>104</v>
@@ -3157,13 +3139,13 @@
         <v>75324</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3160,13 @@
         <v>86808</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -3193,13 +3175,13 @@
         <v>84081</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>242</v>
@@ -3208,13 +3190,13 @@
         <v>170889</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3264,13 @@
         <v>65095</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -3297,13 +3279,13 @@
         <v>69822</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>199</v>
@@ -3312,13 +3294,13 @@
         <v>134917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,13 +3315,13 @@
         <v>158168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>214</v>
@@ -3348,13 +3330,13 @@
         <v>136536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>443</v>
@@ -3363,13 +3345,13 @@
         <v>294704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3419,13 @@
         <v>49625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -3452,13 +3434,13 @@
         <v>46351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>148</v>
@@ -3467,13 +3449,13 @@
         <v>95976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3470,13 @@
         <v>115539</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -3503,13 +3485,13 @@
         <v>109025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>348</v>
@@ -3518,13 +3500,13 @@
         <v>224564</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3574,13 @@
         <v>52929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -3607,13 +3589,13 @@
         <v>60869</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -3622,13 +3604,13 @@
         <v>113799</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3625,13 @@
         <v>153360</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>196</v>
@@ -3658,13 +3640,13 @@
         <v>149431</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -3673,13 +3655,13 @@
         <v>302790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3729,13 @@
         <v>217403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>314</v>
@@ -3762,13 +3744,13 @@
         <v>219046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>622</v>
@@ -3777,13 +3759,13 @@
         <v>436449</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3780,13 @@
         <v>531997</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>711</v>
@@ -3813,13 +3795,13 @@
         <v>492345</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1471</v>
@@ -3828,13 +3810,13 @@
         <v>1024342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034ACEC8-29B1-429F-805C-9DF2B0C43F92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD9FC5-7D64-4A44-BF8A-41540B67EE9B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3928,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,13 +4017,13 @@
         <v>7817</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -4050,13 +4032,13 @@
         <v>8857</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4065,13 +4047,13 @@
         <v>16674</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4068,13 @@
         <v>17757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -4101,13 +4083,13 @@
         <v>13670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4116,13 +4098,13 @@
         <v>31427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4172,13 @@
         <v>37601</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -4205,13 +4187,13 @@
         <v>31794</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>95</v>
@@ -4220,13 +4202,13 @@
         <v>69395</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4223,13 @@
         <v>84901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>117</v>
@@ -4256,13 +4238,13 @@
         <v>79386</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>233</v>
@@ -4271,13 +4253,13 @@
         <v>164287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4327,13 @@
         <v>65707</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -4360,13 +4342,13 @@
         <v>64863</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
@@ -4375,13 +4357,13 @@
         <v>130570</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4378,13 @@
         <v>158652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>233</v>
@@ -4411,13 +4393,13 @@
         <v>142384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>472</v>
@@ -4426,13 +4408,13 @@
         <v>301036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4482,13 @@
         <v>47389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -4515,13 +4497,13 @@
         <v>45194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -4530,13 +4512,13 @@
         <v>92583</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4533,13 @@
         <v>119284</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -4566,13 +4548,13 @@
         <v>110803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -4581,13 +4563,13 @@
         <v>230087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4637,13 @@
         <v>52199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -4670,13 +4652,13 @@
         <v>62587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -4685,13 +4667,13 @@
         <v>114787</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4688,13 @@
         <v>153537</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4721,13 +4703,13 @@
         <v>144833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>418</v>
@@ -4736,13 +4718,13 @@
         <v>298369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4792,13 @@
         <v>210713</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>311</v>
@@ -4825,13 +4807,13 @@
         <v>213296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>602</v>
@@ -4840,13 +4822,13 @@
         <v>424008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4843,13 @@
         <v>534131</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>750</v>
@@ -4876,13 +4858,13 @@
         <v>491075</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>1524</v>
@@ -4891,13 +4873,13 @@
         <v>1025207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF007DC8-D0E2-40C0-A271-BF104EEA71AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE8C0A3-54BA-4C4F-8380-D95234A6F2F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4991,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,13 +5080,13 @@
         <v>2496</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -5113,13 +5095,13 @@
         <v>6589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5128,13 +5110,13 @@
         <v>9085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5131,13 @@
         <v>10202</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5164,13 +5146,13 @@
         <v>10198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -5179,13 +5161,13 @@
         <v>20400</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5235,13 @@
         <v>32207</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -5268,13 +5250,13 @@
         <v>27980</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>80</v>
@@ -5283,13 +5265,13 @@
         <v>60188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5286,13 @@
         <v>81842</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -5319,13 +5301,13 @@
         <v>75915</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>239</v>
@@ -5334,13 +5316,13 @@
         <v>157756</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5390,13 @@
         <v>74611</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>67</v>
@@ -5423,13 +5405,13 @@
         <v>48182</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>162</v>
@@ -5438,13 +5420,13 @@
         <v>122793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5441,13 @@
         <v>171123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>208</v>
@@ -5474,13 +5456,13 @@
         <v>141019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>451</v>
@@ -5489,13 +5471,13 @@
         <v>312142</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5545,13 @@
         <v>56068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5578,13 +5560,13 @@
         <v>51750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -5593,13 +5575,13 @@
         <v>107818</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5596,13 @@
         <v>114033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>150</v>
@@ -5629,13 +5611,13 @@
         <v>113484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>307</v>
@@ -5644,13 +5626,13 @@
         <v>227517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5700,13 @@
         <v>56281</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -5733,13 +5715,13 @@
         <v>57110</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>149</v>
@@ -5748,13 +5730,13 @@
         <v>113391</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5751,13 @@
         <v>115614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>159</v>
@@ -5784,13 +5766,13 @@
         <v>110394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>320</v>
@@ -5799,13 +5781,13 @@
         <v>226007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5855,13 @@
         <v>221663</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>268</v>
@@ -5888,13 +5870,13 @@
         <v>191612</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>431</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>541</v>
@@ -5903,13 +5885,13 @@
         <v>413275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5906,13 @@
         <v>492814</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>433</v>
       </c>
       <c r="H20" s="7">
         <v>660</v>
@@ -5939,13 +5921,13 @@
         <v>451009</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>1350</v>
@@ -5954,13 +5936,13 @@
         <v>943823</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB352B7-AD39-4CCE-9911-DD70B7BBEA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8FE28E6-DD08-4BE8-95A2-430B9E64F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C36E35A1-5CC1-46C3-95D9-DE0B7BCF16B7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7DD3CF7A-067E-4F9D-8C39-CF9533CB6D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,352 +68,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
     <t>33,15%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
   </si>
   <si>
     <t>33,97%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
     <t>25,77%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>74,23%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>71,29%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>30,84%</t>
   </si>
   <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>69,16%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -422,940 +365,778 @@
     <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
   </si>
   <si>
     <t>72,39%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>69,79%</t>
   </si>
   <si>
     <t>66,95%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>Menores en función de si han ido al dentista en los últimos 6 meses en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>72,36%</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413033C0-EDBC-43CE-878A-82FF89F38C63}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD84E35-4B9E-4E28-A9E4-0E592F803C81}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1885,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7">
-        <v>8220</v>
+        <v>50002</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1900,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7">
-        <v>9605</v>
+        <v>43325</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1915,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="N4" s="7">
-        <v>17825</v>
+        <v>93327</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1936,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>17224</v>
+        <v>88724</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1951,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>13119</v>
+        <v>109752</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1966,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="N5" s="7">
-        <v>30343</v>
+        <v>198476</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1987,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2002,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2017,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2040,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7">
-        <v>35105</v>
+        <v>67804</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2055,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="I7" s="7">
-        <v>40397</v>
+        <v>70319</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2070,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="N7" s="7">
-        <v>75502</v>
+        <v>138123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2091,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D8" s="7">
-        <v>92528</v>
+        <v>126668</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2106,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="I8" s="7">
-        <v>75605</v>
+        <v>141823</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2121,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="N8" s="7">
-        <v>168133</v>
+        <v>268491</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2142,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>194472</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2157,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2172,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>633</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>406614</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2195,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>70319</v>
+        <v>37321</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2210,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
-        <v>67804</v>
+        <v>44117</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2225,10 +2006,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="N10" s="7">
-        <v>138123</v>
+        <v>81438</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2246,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>141823</v>
+        <v>100496</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2261,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="I11" s="7">
-        <v>126668</v>
+        <v>105540</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2276,10 +2057,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>419</v>
+        <v>333</v>
       </c>
       <c r="N11" s="7">
-        <v>268491</v>
+        <v>206036</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2297,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2312,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>311</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>194472</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2327,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>633</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>406614</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2350,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7">
-        <v>44117</v>
+        <v>66184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2365,10 +2146,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>37321</v>
+        <v>53563</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2380,10 +2161,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="N13" s="7">
-        <v>81438</v>
+        <v>119747</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2401,10 +2182,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>105540</v>
+        <v>143131</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2416,10 +2197,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>100496</v>
+        <v>154261</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2431,10 +2212,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="N14" s="7">
-        <v>206036</v>
+        <v>297392</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2452,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2467,10 +2248,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2482,10 +2263,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2499,55 +2280,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="D16" s="7">
-        <v>53563</v>
+        <v>221311</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>317</v>
+      </c>
+      <c r="I16" s="7">
+        <v>211324</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>86</v>
-      </c>
-      <c r="I16" s="7">
-        <v>66184</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>642</v>
+      </c>
+      <c r="N16" s="7">
+        <v>432635</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>164</v>
-      </c>
-      <c r="N16" s="7">
-        <v>119747</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,49 +2337,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>228</v>
+        <v>692</v>
       </c>
       <c r="D17" s="7">
-        <v>154261</v>
+        <v>459019</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>769</v>
+      </c>
+      <c r="I17" s="7">
+        <v>511376</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>188</v>
-      </c>
-      <c r="I17" s="7">
-        <v>143131</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1461</v>
+      </c>
+      <c r="N17" s="7">
+        <v>970395</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>416</v>
-      </c>
-      <c r="N17" s="7">
-        <v>297392</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1017</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>680330</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2622,10 +2403,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2637,10 +2418,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2103</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403030</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2653,171 +2434,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>317</v>
-      </c>
-      <c r="D19" s="7">
-        <v>211324</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>325</v>
-      </c>
-      <c r="I19" s="7">
-        <v>221311</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>642</v>
-      </c>
-      <c r="N19" s="7">
-        <v>432635</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>769</v>
-      </c>
-      <c r="D20" s="7">
-        <v>511376</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>692</v>
-      </c>
-      <c r="I20" s="7">
-        <v>459019</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1461</v>
-      </c>
-      <c r="N20" s="7">
-        <v>970395</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I21" s="7">
-        <v>680330</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2103</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403030</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2830,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4507760B-FF3D-4D5B-8B7A-3D8D7EBB30D5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B04D8CB-C8C5-4E80-BEE4-A219E0A1E45D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2847,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2948,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D4" s="7">
-        <v>7333</v>
+        <v>42003</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>9101</v>
+        <v>49754</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="N4" s="7">
-        <v>16434</v>
+        <v>91757</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>18122</v>
+        <v>97354</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="I5" s="7">
-        <v>13272</v>
+        <v>104930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="N5" s="7">
-        <v>31394</v>
+        <v>202284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3065,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3080,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3103,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7">
-        <v>42421</v>
+        <v>69822</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>32903</v>
+        <v>65095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="N7" s="7">
-        <v>75324</v>
+        <v>134917</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="D8" s="7">
-        <v>86808</v>
+        <v>136536</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="I8" s="7">
-        <v>84081</v>
+        <v>158168</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>242</v>
+        <v>443</v>
       </c>
       <c r="N8" s="7">
-        <v>170889</v>
+        <v>294704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3220,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223263</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3235,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>346</v>
+        <v>642</v>
       </c>
       <c r="N9" s="7">
-        <v>246213</v>
+        <v>429621</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3258,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>65095</v>
+        <v>46351</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>69822</v>
+        <v>49625</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="N10" s="7">
-        <v>134917</v>
+        <v>95976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7">
-        <v>158168</v>
+        <v>109025</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="I11" s="7">
-        <v>136536</v>
+        <v>115539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>443</v>
+        <v>348</v>
       </c>
       <c r="N11" s="7">
-        <v>294704</v>
+        <v>224564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>223263</v>
+        <v>155376</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3375,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="I12" s="7">
-        <v>206358</v>
+        <v>165164</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3390,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>642</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>429621</v>
+        <v>320540</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3413,49 +3038,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>49625</v>
+        <v>60869</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>46351</v>
+        <v>52929</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7">
-        <v>95976</v>
+        <v>113799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>115539</v>
+        <v>149431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>109025</v>
+        <v>153360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>224564</v>
+        <v>302790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165164</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3530,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>155376</v>
+        <v>206289</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3545,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="N15" s="7">
-        <v>320540</v>
+        <v>416589</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3562,55 +3187,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="D16" s="7">
-        <v>52929</v>
+        <v>219046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="I16" s="7">
-        <v>60869</v>
+        <v>217403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>152</v>
+        <v>622</v>
       </c>
       <c r="N16" s="7">
-        <v>113799</v>
+        <v>436449</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>207</v>
+        <v>711</v>
       </c>
       <c r="D17" s="7">
-        <v>153360</v>
+        <v>492345</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>196</v>
+        <v>760</v>
       </c>
       <c r="I17" s="7">
-        <v>149431</v>
+        <v>531997</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>403</v>
+        <v>1471</v>
       </c>
       <c r="N17" s="7">
-        <v>302790</v>
+        <v>1024342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,10 +3295,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>280</v>
+        <v>1025</v>
       </c>
       <c r="D18" s="7">
-        <v>206289</v>
+        <v>711391</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3685,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1068</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>749400</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3700,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>555</v>
+        <v>2093</v>
       </c>
       <c r="N18" s="7">
-        <v>416589</v>
+        <v>1460791</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3716,171 +3341,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>308</v>
-      </c>
-      <c r="D19" s="7">
-        <v>217403</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>314</v>
-      </c>
-      <c r="I19" s="7">
-        <v>219046</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>622</v>
-      </c>
-      <c r="N19" s="7">
-        <v>436449</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>760</v>
-      </c>
-      <c r="D20" s="7">
-        <v>531997</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>711</v>
-      </c>
-      <c r="I20" s="7">
-        <v>492345</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1471</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1024342</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1068</v>
-      </c>
-      <c r="D21" s="7">
-        <v>749400</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I21" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1460791</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3893,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FD9FC5-7D64-4A44-BF8A-41540B67EE9B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982FC1EA-3A4F-4E18-BBFA-0354DA95228E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3910,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>7817</v>
+        <v>40651</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I4" s="7">
-        <v>8857</v>
+        <v>45418</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N4" s="7">
-        <v>16674</v>
+        <v>86069</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7">
-        <v>17757</v>
+        <v>93056</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="I5" s="7">
-        <v>13670</v>
+        <v>102658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="N5" s="7">
-        <v>31427</v>
+        <v>195714</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4128,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4143,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4166,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7">
-        <v>37601</v>
+        <v>64863</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="I7" s="7">
-        <v>31794</v>
+        <v>65707</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="N7" s="7">
-        <v>69395</v>
+        <v>130570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="D8" s="7">
-        <v>84901</v>
+        <v>142384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="I8" s="7">
-        <v>79386</v>
+        <v>158652</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="N8" s="7">
-        <v>164287</v>
+        <v>301036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4283,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4298,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4321,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>65707</v>
+        <v>45194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>64863</v>
+        <v>47389</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="N10" s="7">
-        <v>130570</v>
+        <v>92583</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>187</v>
+      </c>
+      <c r="D11" s="7">
+        <v>110803</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D11" s="7">
-        <v>158652</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="H11" s="7">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="I11" s="7">
-        <v>142384</v>
+        <v>119284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
-        <v>472</v>
+        <v>365</v>
       </c>
       <c r="N11" s="7">
-        <v>301036</v>
+        <v>230087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4438,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4453,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4476,49 +3945,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>83</v>
+      </c>
+      <c r="D13" s="7">
+        <v>62587</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="7">
         <v>70</v>
       </c>
-      <c r="D13" s="7">
-        <v>47389</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H13" s="7">
-        <v>72</v>
-      </c>
       <c r="I13" s="7">
-        <v>45194</v>
+        <v>52199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="N13" s="7">
-        <v>92583</v>
+        <v>114787</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>119284</v>
+        <v>144833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="I14" s="7">
-        <v>110803</v>
+        <v>153537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="N14" s="7">
-        <v>230087</v>
+        <v>298369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4593,10 +4062,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4608,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4625,55 +4094,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="D16" s="7">
-        <v>52199</v>
+        <v>213296</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="I16" s="7">
-        <v>62587</v>
+        <v>210713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>153</v>
+        <v>602</v>
       </c>
       <c r="N16" s="7">
-        <v>114787</v>
+        <v>424008</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>220</v>
+        <v>750</v>
       </c>
       <c r="D17" s="7">
-        <v>153537</v>
+        <v>491075</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
-        <v>198</v>
+        <v>774</v>
       </c>
       <c r="I17" s="7">
-        <v>144833</v>
+        <v>534131</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
-        <v>418</v>
+        <v>1524</v>
       </c>
       <c r="N17" s="7">
-        <v>298369</v>
+        <v>1025207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,10 +4202,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4748,10 +4217,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4763,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4779,171 +4248,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>291</v>
-      </c>
-      <c r="D19" s="7">
-        <v>210713</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="7">
-        <v>311</v>
-      </c>
-      <c r="I19" s="7">
-        <v>213296</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>602</v>
-      </c>
-      <c r="N19" s="7">
-        <v>424008</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>774</v>
-      </c>
-      <c r="D20" s="7">
-        <v>534131</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>750</v>
-      </c>
-      <c r="I20" s="7">
-        <v>491075</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1524</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1025207</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4956,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE8C0A3-54BA-4C4F-8380-D95234A6F2F8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D184D1-0D29-474A-9343-503A60965428}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4973,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>2496</v>
+        <v>34705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>6589</v>
+        <v>41021</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>9085</v>
+        <v>75726</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D5" s="7">
-        <v>10202</v>
+        <v>82575</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I5" s="7">
-        <v>10198</v>
+        <v>98849</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="N5" s="7">
-        <v>20400</v>
+        <v>181424</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5191,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>139870</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5206,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257150</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5229,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>32207</v>
+        <v>47766</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>27980</v>
+        <v>75349</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="N7" s="7">
-        <v>60188</v>
+        <v>123114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="D8" s="7">
-        <v>81842</v>
+        <v>139751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="I8" s="7">
-        <v>75915</v>
+        <v>175114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>239</v>
+        <v>451</v>
       </c>
       <c r="N8" s="7">
-        <v>157756</v>
+        <v>314866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>114049</v>
+        <v>187517</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5346,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>250463</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5361,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>613</v>
       </c>
       <c r="N9" s="7">
-        <v>217944</v>
+        <v>437980</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5384,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>74611</v>
+        <v>51273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10" s="7">
-        <v>48182</v>
+        <v>59978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="N10" s="7">
-        <v>122793</v>
+        <v>111250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7">
-        <v>171123</v>
+        <v>135700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="I11" s="7">
-        <v>141019</v>
+        <v>122076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>383</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
-        <v>451</v>
+        <v>307</v>
       </c>
       <c r="N11" s="7">
-        <v>312142</v>
+        <v>257777</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>338</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>245734</v>
+        <v>186973</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5501,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>189201</v>
+        <v>182054</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5516,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>613</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>434935</v>
+        <v>369027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5539,49 +4852,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D13" s="7">
-        <v>56068</v>
+        <v>55469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7">
-        <v>51750</v>
+        <v>59098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="N13" s="7">
-        <v>107818</v>
+        <v>114567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D14" s="7">
-        <v>114033</v>
+        <v>107936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I14" s="7">
-        <v>113484</v>
+        <v>118887</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="N14" s="7">
-        <v>227517</v>
+        <v>226823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>170101</v>
+        <v>163405</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5656,10 +4969,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="I15" s="7">
-        <v>165234</v>
+        <v>177985</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5671,10 +4984,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="N15" s="7">
-        <v>335335</v>
+        <v>341390</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5688,55 +5001,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="D16" s="7">
-        <v>56281</v>
+        <v>189213</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="I16" s="7">
-        <v>57110</v>
+        <v>235444</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
-        <v>149</v>
+        <v>541</v>
       </c>
       <c r="N16" s="7">
-        <v>113391</v>
+        <v>424657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,49 +5058,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>161</v>
+        <v>660</v>
       </c>
       <c r="D17" s="7">
-        <v>115614</v>
+        <v>465962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>159</v>
+        <v>690</v>
       </c>
       <c r="I17" s="7">
-        <v>110394</v>
+        <v>514927</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>320</v>
+        <v>1350</v>
       </c>
       <c r="N17" s="7">
-        <v>226007</v>
+        <v>980889</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>234</v>
+        <v>928</v>
       </c>
       <c r="D18" s="7">
-        <v>171895</v>
+        <v>655175</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5811,10 +5124,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>963</v>
       </c>
       <c r="I18" s="7">
-        <v>167504</v>
+        <v>750371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5826,10 +5139,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>469</v>
+        <v>1891</v>
       </c>
       <c r="N18" s="7">
-        <v>339398</v>
+        <v>1405546</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5842,171 +5155,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>273</v>
-      </c>
-      <c r="D19" s="7">
-        <v>221663</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H19" s="7">
-        <v>268</v>
-      </c>
-      <c r="I19" s="7">
-        <v>191612</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M19" s="7">
-        <v>541</v>
-      </c>
-      <c r="N19" s="7">
-        <v>413275</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>690</v>
-      </c>
-      <c r="D20" s="7">
-        <v>492814</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H20" s="7">
-        <v>660</v>
-      </c>
-      <c r="I20" s="7">
-        <v>451009</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1350</v>
-      </c>
-      <c r="N20" s="7">
-        <v>943823</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>963</v>
-      </c>
-      <c r="D21" s="7">
-        <v>714477</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>928</v>
-      </c>
-      <c r="I21" s="7">
-        <v>642621</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1891</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1357098</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
